--- a/01_Input/00_CO Validation/South Africa - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/South Africa - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="1077" documentId="11_04BEB1641D39DF421FD57979ED4D65D0783B1080" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC3FD51C-2E5F-4D43-9541-444B5477A676}"/>
+  <xr:revisionPtr revIDLastSave="1078" documentId="11_04BEB1641D39DF421FD57979ED4D65D0783B1080" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A71C16A-2FE1-4469-89FC-BD5CE34C2BC9}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="249">
   <si>
     <t>Project ID</t>
   </si>
@@ -270,9 +270,6 @@
   </si>
   <si>
     <t>50 (20 female / 30 male)</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
   <si>
     <t>Number of public and private sector and women-led energy civil society organizations (CSOs) trained on energy transition (disaggregated by gender), inclusive of amplifying the voice of women in the JET discourse</t>
@@ -810,6 +807,9 @@
   </si>
   <si>
     <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
   <si>
     <t>Any other type of beneficiary (please specify justification in Notes)</t>
@@ -1673,8 +1673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF1A8AF-1726-4040-B682-17EF5E8E2BB6}">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2350,11 +2350,9 @@
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="36"/>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="54"/>
+      <c r="F16" s="60" t="s">
         <v>76</v>
-      </c>
-      <c r="F16" s="60" t="s">
-        <v>77</v>
       </c>
       <c r="G16" s="65">
         <v>0</v>
@@ -2363,7 +2361,7 @@
         <v>8</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J16" s="36"/>
       <c r="K16" s="39">
@@ -2393,7 +2391,7 @@
         <v>60</v>
       </c>
       <c r="F17" s="61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G17" s="65">
         <v>0</v>
@@ -2402,7 +2400,7 @@
         <v>25</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J17" s="36"/>
       <c r="K17" s="39">
@@ -2430,7 +2428,7 @@
       <c r="D18" s="36"/>
       <c r="E18" s="54"/>
       <c r="F18" s="60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" s="65">
         <v>0</v>
@@ -2554,7 +2552,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>5</v>
@@ -2572,7 +2570,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="60" customHeight="1">
@@ -2592,23 +2590,23 @@
         <v>19</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>84</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>85</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="15">
         <v>7600000</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="L2" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="76.5">
@@ -2618,18 +2616,18 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>91</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>92</v>
       </c>
       <c r="L3" s="14"/>
     </row>
@@ -2640,7 +2638,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
@@ -2649,7 +2647,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="80"/>
       <c r="K4" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L4" s="14"/>
     </row>
@@ -2660,14 +2658,14 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="80"/>
       <c r="K5" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L5" s="14"/>
     </row>
@@ -2678,18 +2676,18 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>100</v>
       </c>
       <c r="L6" s="14"/>
     </row>
@@ -2700,16 +2698,16 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="80"/>
       <c r="K7" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L7" s="14"/>
     </row>
@@ -2720,14 +2718,14 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="80"/>
       <c r="K8" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L8" s="14"/>
     </row>
@@ -2738,7 +2736,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -2754,17 +2752,17 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="K10" s="19"/>
       <c r="L10" s="14"/>
@@ -2776,17 +2774,17 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="K11" s="19"/>
       <c r="L11" s="14"/>
@@ -2798,14 +2796,14 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="19"/>
@@ -2818,14 +2816,14 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="19"/>
@@ -2838,14 +2836,14 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="19"/>
@@ -2858,7 +2856,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -2874,14 +2872,14 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="19"/>
@@ -2894,14 +2892,14 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="19"/>
@@ -2914,11 +2912,11 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -2932,7 +2930,7 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
@@ -2948,14 +2946,14 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="I20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="19"/>
@@ -2968,14 +2966,14 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="19"/>
@@ -2988,7 +2986,7 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
@@ -3004,17 +3002,17 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="K23" s="19"/>
       <c r="L23" s="14"/>
@@ -3026,17 +3024,17 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="K24" s="19"/>
       <c r="L24" s="14"/>
@@ -3048,7 +3046,7 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -3064,17 +3062,17 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="K26" s="19"/>
       <c r="L26" s="14"/>
@@ -3096,19 +3094,19 @@
         <v>45</v>
       </c>
       <c r="F27" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="H27" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>156</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>34</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K27" s="21" t="s">
         <v>35</v>
@@ -3121,10 +3119,10 @@
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" s="22" t="s">
         <v>158</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>159</v>
       </c>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
@@ -3141,10 +3139,10 @@
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>161</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>38</v>
@@ -3169,17 +3167,17 @@
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H30" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="I30" s="9" t="s">
         <v>163</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>164</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L30" s="14"/>
     </row>
@@ -3190,7 +3188,7 @@
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -3206,14 +3204,14 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="I32" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>169</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -3226,14 +3224,14 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="I33" s="9" t="s">
         <v>171</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>172</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -3246,14 +3244,14 @@
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="I34" s="9" t="s">
         <v>174</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>175</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -3266,7 +3264,7 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
@@ -3282,7 +3280,7 @@
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9" t="s">
@@ -3302,14 +3300,14 @@
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="I37" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>180</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
@@ -3322,7 +3320,7 @@
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -3338,14 +3336,14 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="I39" s="9" t="s">
         <v>183</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>184</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
@@ -3358,14 +3356,14 @@
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I40" s="9" t="s">
         <v>186</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>187</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -3404,10 +3402,10 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="H42" s="1">
         <v>0</v>
@@ -3426,10 +3424,10 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="H43" s="1">
         <v>0</v>
@@ -3448,10 +3446,10 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>193</v>
       </c>
       <c r="H44" s="6">
         <v>0</v>
@@ -3473,16 +3471,16 @@
         <v>1000000</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G45" s="24"/>
       <c r="H45" s="25"/>
       <c r="I45" s="25"/>
       <c r="J45" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K45" s="26" t="s">
         <v>59</v>
@@ -3498,7 +3496,7 @@
         <v>45</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G46" s="24" t="s">
         <v>58</v>
@@ -3522,10 +3520,10 @@
         <v>19</v>
       </c>
       <c r="F47" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="G47" s="28" t="s">
         <v>197</v>
-      </c>
-      <c r="G47" s="28" t="s">
-        <v>198</v>
       </c>
       <c r="H47" s="29">
         <v>1</v>
@@ -3544,13 +3542,13 @@
       <c r="D48" s="28"/>
       <c r="E48" s="28"/>
       <c r="F48" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G48" s="28" t="s">
         <v>61</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>62</v>
@@ -3566,7 +3564,7 @@
       <c r="D49" s="28"/>
       <c r="E49" s="28"/>
       <c r="F49" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G49" s="28" t="s">
         <v>63</v>
@@ -3588,7 +3586,7 @@
       <c r="D50" s="28"/>
       <c r="E50" s="28"/>
       <c r="F50" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G50" s="28" t="s">
         <v>65</v>
@@ -3610,7 +3608,7 @@
       <c r="D51" s="28"/>
       <c r="E51" s="28"/>
       <c r="F51" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G51" s="26"/>
       <c r="H51" s="3"/>
@@ -3626,13 +3624,13 @@
       <c r="D52" s="28"/>
       <c r="E52" s="28"/>
       <c r="F52" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G52" s="26" t="s">
         <v>67</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>68</v>
@@ -3648,10 +3646,10 @@
       <c r="D53" s="28"/>
       <c r="E53" s="28"/>
       <c r="F53" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G53" s="28" t="s">
         <v>206</v>
-      </c>
-      <c r="G53" s="28" t="s">
-        <v>207</v>
       </c>
       <c r="H53" s="2">
         <v>1</v>
@@ -3674,7 +3672,7 @@
         <v>69</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>72</v>
@@ -3710,7 +3708,7 @@
       <c r="D56" s="28"/>
       <c r="E56" s="28"/>
       <c r="F56" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G56" s="26"/>
       <c r="H56" s="3"/>
@@ -3726,16 +3724,16 @@
       <c r="D57" s="28"/>
       <c r="E57" s="28"/>
       <c r="F57" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G57" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J57" s="28"/>
       <c r="K57" s="28"/>
@@ -3749,13 +3747,13 @@
       <c r="E58" s="28"/>
       <c r="F58" s="28"/>
       <c r="G58" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J58" s="28"/>
       <c r="K58" s="28"/>
@@ -3768,10 +3766,10 @@
       <c r="D59" s="28"/>
       <c r="E59" s="28"/>
       <c r="F59" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="G59" s="28" t="s">
         <v>211</v>
-      </c>
-      <c r="G59" s="28" t="s">
-        <v>212</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
@@ -3790,10 +3788,10 @@
       <c r="D60" s="28"/>
       <c r="E60" s="28"/>
       <c r="F60" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="G60" s="28" t="s">
         <v>213</v>
-      </c>
-      <c r="G60" s="28" t="s">
-        <v>214</v>
       </c>
       <c r="H60" s="2">
         <v>3</v>
@@ -3813,7 +3811,7 @@
       <c r="E61" s="28"/>
       <c r="F61" s="28"/>
       <c r="G61" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="2">
         <v>0</v>
@@ -3899,7 +3897,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>5</v>
@@ -3917,7 +3915,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="290.25">
@@ -3937,23 +3935,23 @@
         <v>19</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>84</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>85</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="15">
         <v>7600000</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="L2" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="76.5">
@@ -3963,18 +3961,18 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>91</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>92</v>
       </c>
       <c r="L3" s="14"/>
     </row>
@@ -3985,7 +3983,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
@@ -3994,7 +3992,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="80"/>
       <c r="K4" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L4" s="14"/>
     </row>
@@ -4005,14 +4003,14 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="80"/>
       <c r="K5" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L5" s="14"/>
     </row>
@@ -4023,18 +4021,18 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>100</v>
       </c>
       <c r="L6" s="14"/>
     </row>
@@ -4045,16 +4043,16 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="80"/>
       <c r="K7" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L7" s="14"/>
     </row>
@@ -4065,14 +4063,14 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="80"/>
       <c r="K8" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L8" s="14"/>
     </row>
@@ -4083,7 +4081,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -4099,17 +4097,17 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="K10" s="19"/>
       <c r="L10" s="14"/>
@@ -4121,17 +4119,17 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="K11" s="19"/>
       <c r="L11" s="14"/>
@@ -4143,14 +4141,14 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="19"/>
@@ -4163,14 +4161,14 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="19"/>
@@ -4183,14 +4181,14 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="19"/>
@@ -4203,7 +4201,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -4219,14 +4217,14 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="19"/>
@@ -4239,14 +4237,14 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="19"/>
@@ -4259,11 +4257,11 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -4277,7 +4275,7 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
@@ -4293,14 +4291,14 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="I20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="19"/>
@@ -4313,14 +4311,14 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="19"/>
@@ -4333,7 +4331,7 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
@@ -4349,17 +4347,17 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="K23" s="19"/>
       <c r="L23" s="14"/>
@@ -4371,17 +4369,17 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="K24" s="19"/>
       <c r="L24" s="14"/>
@@ -4393,7 +4391,7 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -4409,17 +4407,17 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="K26" s="19"/>
       <c r="L26" s="14"/>
@@ -4441,19 +4439,19 @@
         <v>45</v>
       </c>
       <c r="F27" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="H27" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>156</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>34</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K27" s="21" t="s">
         <v>35</v>
@@ -4466,10 +4464,10 @@
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" s="22" t="s">
         <v>158</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>159</v>
       </c>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
@@ -4486,10 +4484,10 @@
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>161</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>38</v>
@@ -4514,17 +4512,17 @@
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H30" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="I30" s="9" t="s">
         <v>163</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>164</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L30" s="14"/>
     </row>
@@ -4535,7 +4533,7 @@
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -4551,14 +4549,14 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="I32" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>169</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -4571,14 +4569,14 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="I33" s="9" t="s">
         <v>171</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>172</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -4591,14 +4589,14 @@
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="I34" s="9" t="s">
         <v>174</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>175</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -4611,7 +4609,7 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
@@ -4627,7 +4625,7 @@
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9" t="s">
@@ -4647,14 +4645,14 @@
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="I37" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>180</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
@@ -4667,7 +4665,7 @@
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -4683,14 +4681,14 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="I39" s="9" t="s">
         <v>183</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>184</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
@@ -4703,14 +4701,14 @@
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I40" s="9" t="s">
         <v>186</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>187</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -4749,10 +4747,10 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="H42" s="1">
         <v>0</v>
@@ -4771,10 +4769,10 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="H43" s="1">
         <v>0</v>
@@ -4793,10 +4791,10 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>193</v>
       </c>
       <c r="H44" s="6">
         <v>0</v>
@@ -4818,16 +4816,16 @@
         <v>1000000</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G45" s="24"/>
       <c r="H45" s="25"/>
       <c r="I45" s="25"/>
       <c r="J45" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K45" s="26" t="s">
         <v>59</v>
@@ -4843,7 +4841,7 @@
         <v>45</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G46" s="24" t="s">
         <v>58</v>
@@ -4867,10 +4865,10 @@
         <v>19</v>
       </c>
       <c r="F47" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="G47" s="28" t="s">
         <v>197</v>
-      </c>
-      <c r="G47" s="28" t="s">
-        <v>198</v>
       </c>
       <c r="H47" s="29">
         <v>1</v>
@@ -4889,13 +4887,13 @@
       <c r="D48" s="28"/>
       <c r="E48" s="28"/>
       <c r="F48" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G48" s="28" t="s">
         <v>61</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>62</v>
@@ -4911,7 +4909,7 @@
       <c r="D49" s="28"/>
       <c r="E49" s="28"/>
       <c r="F49" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G49" s="28" t="s">
         <v>63</v>
@@ -4933,7 +4931,7 @@
       <c r="D50" s="28"/>
       <c r="E50" s="28"/>
       <c r="F50" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G50" s="28" t="s">
         <v>65</v>
@@ -4955,7 +4953,7 @@
       <c r="D51" s="28"/>
       <c r="E51" s="28"/>
       <c r="F51" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G51" s="26"/>
       <c r="H51" s="3"/>
@@ -4971,13 +4969,13 @@
       <c r="D52" s="28"/>
       <c r="E52" s="28"/>
       <c r="F52" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G52" s="26" t="s">
         <v>67</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>68</v>
@@ -4993,10 +4991,10 @@
       <c r="D53" s="28"/>
       <c r="E53" s="28"/>
       <c r="F53" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G53" s="28" t="s">
         <v>206</v>
-      </c>
-      <c r="G53" s="28" t="s">
-        <v>207</v>
       </c>
       <c r="H53" s="2">
         <v>1</v>
@@ -5019,7 +5017,7 @@
         <v>69</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>72</v>
@@ -5055,7 +5053,7 @@
       <c r="D56" s="28"/>
       <c r="E56" s="28"/>
       <c r="F56" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G56" s="26"/>
       <c r="H56" s="3"/>
@@ -5071,16 +5069,16 @@
       <c r="D57" s="28"/>
       <c r="E57" s="28"/>
       <c r="F57" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G57" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J57" s="28"/>
       <c r="K57" s="28"/>
@@ -5094,13 +5092,13 @@
       <c r="E58" s="28"/>
       <c r="F58" s="28"/>
       <c r="G58" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J58" s="28"/>
       <c r="K58" s="28"/>
@@ -5113,10 +5111,10 @@
       <c r="D59" s="28"/>
       <c r="E59" s="28"/>
       <c r="F59" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="G59" s="28" t="s">
         <v>211</v>
-      </c>
-      <c r="G59" s="28" t="s">
-        <v>212</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
@@ -5135,10 +5133,10 @@
       <c r="D60" s="28"/>
       <c r="E60" s="28"/>
       <c r="F60" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="G60" s="28" t="s">
         <v>213</v>
-      </c>
-      <c r="G60" s="28" t="s">
-        <v>214</v>
       </c>
       <c r="H60" s="2">
         <v>3</v>
@@ -5158,7 +5156,7 @@
       <c r="E61" s="28"/>
       <c r="F61" s="28"/>
       <c r="G61" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="2">
         <v>0</v>
@@ -5231,7 +5229,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="72" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5239,63 +5237,63 @@
         <v>45</v>
       </c>
       <c r="B3" s="72" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30.75">
       <c r="A4" s="84" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>217</v>
-      </c>
-      <c r="B4" s="72" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30.75">
       <c r="A5" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="72" t="s">
         <v>219</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="91.5">
       <c r="A6" s="84" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="72" t="s">
         <v>221</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45.75">
       <c r="A7" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="72" t="s">
         <v>223</v>
-      </c>
-      <c r="B7" s="72" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45.75">
       <c r="A8" s="84" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" s="72" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45.75">
       <c r="A9" s="84" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" s="72" t="s">
         <v>226</v>
-      </c>
-      <c r="B9" s="72" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30.75">
       <c r="A10" s="84" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" s="85" t="s">
         <v>228</v>
-      </c>
-      <c r="B10" s="85" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30.75">
@@ -5303,39 +5301,39 @@
         <v>28</v>
       </c>
       <c r="B11" s="85" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45.75">
       <c r="A12" s="84" t="s">
+        <v>230</v>
+      </c>
+      <c r="B12" s="72" t="s">
         <v>231</v>
-      </c>
-      <c r="B12" s="72" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30.75">
       <c r="A13" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13" s="85" t="s">
         <v>233</v>
-      </c>
-      <c r="B13" s="85" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="84" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" s="85" t="s">
         <v>235</v>
-      </c>
-      <c r="B14" s="85" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30.75">
       <c r="A15" s="84" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" s="85" t="s">
         <v>237</v>
-      </c>
-      <c r="B15" s="85" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30.75">
@@ -5343,7 +5341,7 @@
         <v>66</v>
       </c>
       <c r="B16" s="85" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30.75">
@@ -5351,31 +5349,31 @@
         <v>60</v>
       </c>
       <c r="B17" s="72" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30.75">
       <c r="A18" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="B18" s="85" t="s">
         <v>241</v>
-      </c>
-      <c r="B18" s="85" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="76.5">
       <c r="A19" s="84" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="85" t="s">
         <v>243</v>
-      </c>
-      <c r="B19" s="85" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30.75">
       <c r="A20" s="84" t="s">
+        <v>244</v>
+      </c>
+      <c r="B20" s="85" t="s">
         <v>245</v>
-      </c>
-      <c r="B20" s="85" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45.75">
@@ -5383,12 +5381,12 @@
         <v>19</v>
       </c>
       <c r="B21" s="86" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30.75">
       <c r="A22" s="84" t="s">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="B22" s="85" t="s">
         <v>248</v>
@@ -5400,19 +5398,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -5437,6 +5433,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5516,6 +5513,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -5660,22 +5662,24 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06F11A6E-3447-4DD8-8640-39E570D1D2DD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB90B757-2575-41DD-87F4-EC29D9CB0158}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EF8A23F-3390-418B-8F91-A8ECC9FCB923}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8692E424-3869-4127-BDA0-1CE08A12E29A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB90B757-2575-41DD-87F4-EC29D9CB0158}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06F11A6E-3447-4DD8-8640-39E570D1D2DD}"/>
 </file>